--- a/Personal Finance Tracker.xlsx
+++ b/Personal Finance Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwmu\Documents\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684B9EEE-6C7D-4350-92BE-5E89E40FF8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED33192-C020-42D8-9586-EAC373BD324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26556D24-D4BF-7F42-A09E-BBAB9A26F04C}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>Month</t>
   </si>
@@ -124,45 +124,6 @@
     <t>Income &amp; Expense Entries</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Investment Idea</t>
-  </si>
-  <si>
-    <t>9-5 Job</t>
-  </si>
-  <si>
-    <t>Cricket</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Badminton</t>
-  </si>
-  <si>
-    <t>Movies</t>
-  </si>
-  <si>
-    <t>Average Month</t>
-  </si>
-  <si>
-    <t>Comissions from Sale</t>
-  </si>
-  <si>
-    <t>Tennis</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
     <t>Savings</t>
   </si>
   <si>
@@ -206,12 +167,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Dinner</t>
   </si>
   <si>
     <t>Expenses</t>
@@ -235,14 +190,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -346,6 +308,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -561,145 +529,149 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -939,7 +911,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4660EA85-69A9-46C3-8E7C-F673F77BCA25}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF073673"/>
@@ -971,14 +945,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2C080A0-9856-4BE7-8DD8-AAB5D8BDDAA2}" name="Table3" displayName="Table3" ref="B4:G35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2C1F1B67-58BE-4926-A0AC-3CA19240D04E}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2BE9FD85-79CF-49B1-8943-25652C7D9CD5}" name="Month" dataDxfId="4">
-      <calculatedColumnFormula>TEXT(B5,"mmmm")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{2BE9FD85-79CF-49B1-8943-25652C7D9CD5}" name="Month" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{38EC623C-7FDE-47FB-9FB7-BBBE33B16A75}" name="Amount" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{FD83D4D7-49A9-4D17-8F12-42979306064B}" name="Category" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B959D895-937B-45D4-A192-31EFD3223392}" name="Income / Expense" dataDxfId="1">
-      <calculatedColumnFormula>VLOOKUP(E5,Table2[],2,0)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B959D895-937B-45D4-A192-31EFD3223392}" name="Income / Expense" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{78E003B0-0CDB-4281-843C-7D151AA0D23C}" name="Description (optional)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -986,9 +956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1026,7 +996,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1132,7 +1102,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1274,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1284,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB42F5D-FD9A-D843-892B-5A8A8543F732}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1317,43 +1287,43 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C4" s="56">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
+        <v>45633</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F4" s="53">
         <f>C23</f>
-        <v>82000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E5" s="51" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F5" s="54">
         <f>F23</f>
-        <v>26217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C6" s="57">
         <f ca="1">DAY(C4)/EOMONTH(MONTH(C4),0)</f>
-        <v>0.87096774193548387</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F6" s="55">
         <f>I23</f>
-        <v>55783</v>
+        <v>0</v>
       </c>
       <c r="G6" s="52"/>
     </row>
@@ -1384,211 +1354,211 @@
       <c r="F10" s="37"/>
       <c r="G10" s="10"/>
       <c r="H10" s="34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C11" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B11,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F11" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E11,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I11" s="21">
         <f>C11-F11</f>
-        <v>26500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C12" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B12,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F12" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E12,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>2860</v>
+        <v>0</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" ref="I12:I22" si="0">C12-F12</f>
-        <v>3140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C13" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B13,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F13" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E13,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C14" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B14,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F14" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E14,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B15,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F15" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E15,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B16,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F16" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E16,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>5525</v>
+        <v>0</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="0"/>
-        <v>4475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C17" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B17,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F17" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E17,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
-        <v>4238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C18" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B18,Table3[Income / Expense],Dashboard!B$10)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F18" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E18,Table3[Income / Expense],Dashboard!E$10)</f>
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="0"/>
-        <v>1930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C19" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B19,Table3[Income / Expense],Dashboard!B$10)</f>
         <v>0</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F19" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E19,Table3[Income / Expense],Dashboard!E$10)</f>
         <v>0</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I19" s="21">
         <f>C19-F19</f>
@@ -1597,21 +1567,21 @@
     </row>
     <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C20" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B20,Table3[Income / Expense],Dashboard!B$10)</f>
         <v>0</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F20" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E20,Table3[Income / Expense],Dashboard!E$10)</f>
         <v>0</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
@@ -1620,21 +1590,21 @@
     </row>
     <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C21" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B21,Table3[Income / Expense],Dashboard!B$10)</f>
         <v>0</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F21" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E21,Table3[Income / Expense],Dashboard!E$10)</f>
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="0"/>
@@ -1643,21 +1613,21 @@
     </row>
     <row r="22" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C22" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!B22,Table3[Income / Expense],Dashboard!B$10)</f>
         <v>0</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F22" s="21">
         <f>SUMIFS(Table3[Amount],Table3[Month],Dashboard!E22,Table3[Income / Expense],Dashboard!E$10)</f>
         <v>0</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="0"/>
@@ -1666,48 +1636,48 @@
     </row>
     <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" s="28" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C23" s="29">
         <f>SUM(C11:C22)</f>
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F23" s="31">
         <f>SUM(F11:F22)</f>
-        <v>26217</v>
+        <v>0</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I23" s="33">
         <f>SUM(I11:I22)</f>
-        <v>55783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="23">
+        <v>35</v>
+      </c>
+      <c r="C24" s="23" t="e">
         <f>AVERAGEIF(C11:C23,"&gt;0")</f>
-        <v>18222.222222222223</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="25">
+        <v>35</v>
+      </c>
+      <c r="F24" s="25" t="e">
         <f>AVERAGEIF(F11:F23,"&gt;0")</f>
-        <v>5826</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="27">
+        <v>35</v>
+      </c>
+      <c r="I24" s="27" t="e">
         <f>AVERAGEIF(I11:I22,"&gt;0")</f>
-        <v>6972.875</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -1732,7 +1702,7 @@
       <c r="C28" s="40"/>
       <c r="D28" s="10"/>
       <c r="E28" s="41" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F28" s="41"/>
     </row>
@@ -1743,7 +1713,7 @@
       </c>
       <c r="C29" s="43">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!B29)</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="42" t="str" cm="1">
@@ -1752,7 +1722,7 @@
       </c>
       <c r="F29" s="43">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!E29)</f>
-        <v>11000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1731,7 @@
       </c>
       <c r="C30" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!B30)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="44" t="str">
@@ -1769,7 +1739,7 @@
       </c>
       <c r="F30" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!E30)</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1778,7 +1748,7 @@
       </c>
       <c r="C31" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!B31)</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="44" t="str">
@@ -1786,16 +1756,16 @@
       </c>
       <c r="F31" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!E31)</f>
-        <v>4092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" s="46" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C32" s="47">
         <f>SUM(C29:C31)</f>
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="44" t="str">
@@ -1803,7 +1773,7 @@
       </c>
       <c r="F32" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!E32)</f>
-        <v>3925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1815,7 +1785,7 @@
       </c>
       <c r="F33" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!E33)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1827,7 +1797,7 @@
       </c>
       <c r="F34" s="45">
         <f>SUMIFS(Table3[Amount],Table3[Category],Dashboard!E34)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1835,11 +1805,11 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="48" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F29:F34)</f>
-        <v>26217</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CED9F2A-ABAA-DF47-BE20-91E9C4325B1E}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1954,13 +1924,15 @@
     <col min="8" max="8" width="6.796875" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.19921875" style="2"/>
     <col min="10" max="10" width="16.796875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.19921875" style="2"/>
+    <col min="11" max="11" width="11.19921875" style="2"/>
+    <col min="12" max="13" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1970,10 +1942,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1998,746 +1970,336 @@
       <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
-        <v>44927</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>TEXT(B5,"mmmm")</f>
-        <v>January</v>
-      </c>
-      <c r="D5" s="7">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>VLOOKUP(E5,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="M4" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="13"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
-        <v>44928</v>
-      </c>
-      <c r="C6" s="17" t="str">
-        <f>TEXT(B6,"mmmm")</f>
-        <v>January</v>
-      </c>
-      <c r="D6" s="17">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="17" t="str">
-        <f>VLOOKUP(E6,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="L5" s="59" t="s">
         <v>22</v>
       </c>
+      <c r="M5" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
       <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
-        <v>44929</v>
-      </c>
-      <c r="C7" s="17" t="str">
-        <f t="shared" ref="C7:C12" si="0">TEXT(B7,"mmmm")</f>
-        <v>January</v>
-      </c>
-      <c r="D7" s="17">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="17" t="str">
-        <f>VLOOKUP(E7,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="L6" s="59" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
-        <v>44930</v>
-      </c>
-      <c r="C8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>January</v>
-      </c>
-      <c r="D8" s="17">
-        <v>400</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="17" t="str">
-        <f>VLOOKUP(E8,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="L7" s="59" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13"/>
       <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
-        <v>44931</v>
-      </c>
-      <c r="C9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>January</v>
-      </c>
-      <c r="D9" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="17" t="str">
-        <f>VLOOKUP(E9,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="L8" s="59" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="13"/>
       <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
-        <v>44932</v>
-      </c>
-      <c r="C10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>January</v>
-      </c>
-      <c r="D10" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17" t="str">
-        <f>VLOOKUP(E10,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="L9" s="59" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13"/>
       <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
-        <v>44960</v>
-      </c>
-      <c r="C11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>February</v>
-      </c>
-      <c r="D11" s="17">
-        <v>715</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17" t="str">
-        <f>VLOOKUP(E11,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="L10" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="13"/>
       <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
-        <v>44961</v>
-      </c>
-      <c r="C12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>February</v>
-      </c>
-      <c r="D12" s="17">
-        <v>545</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="17" t="str">
-        <f>VLOOKUP(E12,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="L11" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
       <c r="I12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
-        <v>44962</v>
-      </c>
-      <c r="C13" s="17" t="str">
-        <f>TEXT(B13,"mmmm")</f>
-        <v>February</v>
-      </c>
-      <c r="D13" s="17">
-        <v>6000</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="17" t="str">
-        <f>VLOOKUP(E13,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="L12" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
-        <v>44963</v>
-      </c>
-      <c r="C14" s="17" t="str">
-        <f t="shared" ref="C14:C17" si="1">TEXT(B14,"mmmm")</f>
-        <v>February</v>
-      </c>
-      <c r="D14" s="17">
-        <v>500</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="17" t="str">
-        <f>VLOOKUP(E14,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
-        <v>44964</v>
-      </c>
-      <c r="C15" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>February</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1100</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="17" t="str">
-        <f>VLOOKUP(E15,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
-        <v>44997</v>
-      </c>
-      <c r="C16" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>March</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1500</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="17" t="str">
-        <f>VLOOKUP(E16,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
+      <c r="L13" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13"/>
+      <c r="L14" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13"/>
+      <c r="L15" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
-        <v>44998</v>
-      </c>
-      <c r="C17" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>March</v>
-      </c>
-      <c r="D17" s="17">
-        <v>700</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17" t="str">
-        <f>VLOOKUP(E17,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
-        <v>44999</v>
-      </c>
-      <c r="C18" s="17" t="str">
-        <f t="shared" ref="C18:C34" si="2">TEXT(B18,"mmmm")</f>
-        <v>March</v>
-      </c>
-      <c r="D18" s="17">
-        <v>400</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="17" t="str">
-        <f>VLOOKUP(E18,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
-        <v>45000</v>
-      </c>
-      <c r="C19" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>March</v>
-      </c>
-      <c r="D19" s="17">
-        <v>4000</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="17" t="str">
-        <f>VLOOKUP(E19,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
-        <v>45027</v>
-      </c>
-      <c r="C20" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>April</v>
-      </c>
-      <c r="D20" s="17">
-        <v>900</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="17" t="str">
-        <f>VLOOKUP(E20,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
-        <v>45028</v>
-      </c>
-      <c r="C21" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>April</v>
-      </c>
-      <c r="D21" s="17">
-        <v>300</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="17" t="str">
-        <f>VLOOKUP(E21,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
-        <v>45029</v>
-      </c>
-      <c r="C22" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>April</v>
-      </c>
-      <c r="D22" s="17">
-        <v>15000</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="17" t="str">
-        <f>VLOOKUP(E22,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
+      <c r="L16" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
-        <v>45076</v>
-      </c>
-      <c r="C23" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>May</v>
-      </c>
-      <c r="D23" s="17">
-        <v>4000</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="17" t="str">
-        <f>VLOOKUP(E23,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
-        <v>45047</v>
-      </c>
-      <c r="C24" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>May</v>
-      </c>
-      <c r="D24" s="17">
-        <v>1900</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="17" t="str">
-        <f>VLOOKUP(E24,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
-        <v>45048</v>
-      </c>
-      <c r="C25" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>May</v>
-      </c>
-      <c r="D25" s="17">
-        <v>1200</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="17" t="str">
-        <f>VLOOKUP(E25,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
-        <v>45068</v>
-      </c>
-      <c r="C26" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>May</v>
-      </c>
-      <c r="D26" s="17">
-        <v>600</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17" t="str">
-        <f>VLOOKUP(E26,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
-        <v>45086</v>
-      </c>
-      <c r="C27" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>June</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3000</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="17" t="str">
-        <f>VLOOKUP(E27,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
-        <v>45087</v>
-      </c>
-      <c r="C28" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>June</v>
-      </c>
-      <c r="D28" s="17">
-        <v>10000</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="17" t="str">
-        <f>VLOOKUP(E28,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
-        <v>45088</v>
-      </c>
-      <c r="C29" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>June</v>
-      </c>
-      <c r="D29" s="17">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="17" t="str">
-        <f>VLOOKUP(E29,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
-        <v>45103</v>
-      </c>
-      <c r="C30" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>June</v>
-      </c>
-      <c r="D30" s="17">
-        <v>525</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="17" t="str">
-        <f>VLOOKUP(E30,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
-        <v>45134</v>
-      </c>
-      <c r="C31" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>July</v>
-      </c>
-      <c r="D31" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="17" t="str">
-        <f>VLOOKUP(E31,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
-        <v>45135</v>
-      </c>
-      <c r="C32" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>July</v>
-      </c>
-      <c r="D32" s="17">
-        <v>762</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="17" t="str">
-        <f>VLOOKUP(E32,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
-        <v>45167</v>
-      </c>
-      <c r="C33" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>August</v>
-      </c>
-      <c r="D33" s="17">
-        <v>3000</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="17" t="str">
-        <f>VLOOKUP(E33,Table2[],2,0)</f>
-        <v>Income</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
-        <v>45168</v>
-      </c>
-      <c r="C34" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>August</v>
-      </c>
-      <c r="D34" s="17">
-        <v>300</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="17" t="str">
-        <f>VLOOKUP(E34,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
-        <v>45169</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <f>TEXT(B35,"mmmm")</f>
-        <v>August</v>
-      </c>
-      <c r="D35" s="17">
-        <v>770</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="17" t="str">
-        <f>VLOOKUP(E35,Table2[],2,0)</f>
-        <v>Expense</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>21</v>
-      </c>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <phoneticPr fontId="16" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E35" xr:uid="{2D6B1D88-5F63-4DE7-A044-D3DB684DA060}">
       <formula1>$I$5:$I$13</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{A126B4A1-0C8E-4B9C-9169-750988259091}">
+      <formula1>$L$5:$L$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{E018D7FD-507D-485E-937F-CE212E29732E}">
+      <formula1>$M$4:$M$5</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F27:F35" evalError="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
